--- a/xlsx/韩语_intext.xlsx
+++ b/xlsx/韩语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>韩语</t>
   </si>
@@ -29,7 +29,7 @@
     <t>朝鲜族</t>
   </si>
   <si>
-    <t>政策_政策_美國_韩语</t>
+    <t>政策_政策_美国_韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%96%87</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>諺文</t>
+    <t>谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>官方語言列表</t>
+    <t>官方语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E9%82%8A%E6%9C%9D%E9%AE%AE%E6%97%8F%E8%87%AA%E6%B2%BB%E5%B7%9E</t>
   </si>
   <si>
-    <t>延邊朝鮮族自治州</t>
+    <t>延边朝鲜族自治州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%99%BD%E6%9C%9D%E9%AE%AE%E6%97%8F%E8%87%AA%E6%B2%BB%E7%B8%A3</t>
   </si>
   <si>
-    <t>長白朝鮮族自治縣</t>
+    <t>长白朝鲜族自治县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E8%AA%9E%E9%99%A2</t>
   </si>
   <si>
-    <t>國立國語院</t>
+    <t>国立国语院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
@@ -170,18 +170,9 @@
     <t>韩国</t>
   </si>
   <si>
-    <t>大韓民國</t>
-  </si>
-  <si>
-    <t>朝鮮民主主義人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97</t>
   </si>
   <si>
@@ -191,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E9%81%A0%E6%9D%B1%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>俄羅斯遠東地區</t>
+    <t>俄罗斯远东地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -230,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>高麗王朝</t>
+    <t>高丽王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%BD%E8%AF%AD</t>
@@ -254,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E9%AB%98%E5%AE%97</t>
   </si>
   <si>
-    <t>朝鮮高宗</t>
+    <t>朝鲜高宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E5%B8%9D%E5%9B%BD</t>
@@ -266,25 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E8%AA%9E_(%E8%98%87%E8%81%AF)</t>
   </si>
   <si>
-    <t>高麗語 (蘇聯)</t>
-  </si>
-  <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
-    <t>朝鮮族</t>
+    <t>高丽语 (苏联)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
+    <t>汉字文化圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B0%E8%B0%83</t>
@@ -296,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD%E9%9F%B3%E7%B3%BB</t>
@@ -320,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓國語</t>
+    <t>韩国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%85%E9%9F%B3</t>
@@ -542,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>古諺文</t>
+    <t>古谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E3%85%B8</t>
@@ -578,31 +563,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87%E5%AD%97%E6%AF%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>諺文字母列表</t>
+    <t>谚文字母列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E6%B0%91%E6%AD%A3%E9%9F%B3</t>
   </si>
   <si>
-    <t>訓民正音</t>
+    <t>训民正音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E6%AF%8D</t>
   </si>
   <si>
-    <t>聲母</t>
+    <t>声母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E6%AF%8D</t>
   </si>
   <si>
-    <t>韻母</t>
+    <t>韵母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E5%B0%BE</t>
   </si>
   <si>
-    <t>韻尾</t>
+    <t>韵尾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%A7%91%E6%81%A9-%E8%B5%96%E8%82%96%E5%B0%94%E8%A1%A8%E8%AE%B0%E6%B3%95</t>
@@ -620,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AF%A7%E5%B8%82</t>
   </si>
   <si>
-    <t>保寧市</t>
+    <t>保宁市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3%E5%92%8C%E8%B0%90%E5%BE%8B</t>
@@ -632,19 +617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%9F%B3%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>頭音規則</t>
+    <t>头音规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BE%85</t>
   </si>
   <si>
-    <t>新羅</t>
+    <t>新罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%8B%8F%E5%B1%B1</t>
   </si>
   <si>
-    <t>漢拏山</t>
+    <t>汉拏山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
@@ -674,19 +659,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%9C%89%E8%A9%9E</t>
   </si>
   <si>
-    <t>固有詞</t>
+    <t>固有词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製漢語</t>
+    <t>和制汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%9D%A5%E8%AF%8D</t>
@@ -698,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E8%AF%8D</t>
@@ -710,45 +695,42 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%BC%A2%E6%B7%B7%E7%94%A8%E6%96%87</t>
   </si>
   <si>
-    <t>韓漢混用文</t>
+    <t>韩汉混用文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%8B%89%E4%B8%81%E5%8C%96</t>
   </si>
   <si>
-    <t>朝鮮語拉丁化</t>
+    <t>朝鲜语拉丁化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A7%91%E6%81%A9-%E8%B3%B4%E8%82%96%E7%88%BE%E8%A1%A8%E8%A8%98%E6%B3%95</t>
   </si>
   <si>
-    <t>馬科恩-賴肖爾表記法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A7%82%E5%85%89%E9%83%A82000%E5%B9%B4%E5%BC%8F</t>
   </si>
   <si>
@@ -758,21 +740,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>耶魯拼音</t>
+    <t>耶鲁拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9C%AD</t>
   </si>
   <si>
-    <t>乡札</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
   </si>
   <si>
-    <t>汉语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%96%87</t>
   </si>
   <si>
@@ -788,34 +764,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AD%E6%B0%91%E6%AD%A3%E9%9F%B3</t>
   </si>
   <si>
-    <t>训民正音</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>韓語字母</t>
+    <t>韩语字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>朝鮮語方言</t>
-  </si>
-  <si>
-    <t>文化語</t>
+    <t>朝鲜语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9E%97%E7%9C%81</t>
@@ -839,13 +806,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E8%BE%B9%E6%9C%9D%E9%B2%9C%E6%97%8F%E8%87%AA%E6%B2%BB%E5%B7%9E</t>
   </si>
   <si>
-    <t>延边朝鲜族自治州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%A9%B1</t>
   </si>
   <si>
-    <t>普通話</t>
+    <t>普通话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E8%A3%94%E6%97%A5%E6%9C%AC%E4%BA%BA</t>
@@ -893,9 +857,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%AF%A7%E7%9C%81</t>
   </si>
   <si>
-    <t>遼寧省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E6%B1%9F%E9%81%93</t>
   </si>
   <si>
@@ -917,13 +878,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BE%8D%E6%B1%9F%E7%9C%81</t>
   </si>
   <si>
-    <t>黑龍江省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E9%9F%93%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>標準韓國語</t>
+    <t>标准韩国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%9F%8E</t>
@@ -1001,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%85%E5%8D%97%E9%81%93</t>
   </si>
   <si>
-    <t>全羅南道</t>
+    <t>全罗南道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%86%E5%B0%9A%E6%96%B9%E8%A8%80</t>
@@ -1037,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%B7%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>濟州語</t>
+    <t>济州语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E5%B7%9E%E9%81%93</t>
@@ -1049,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E6%97%A5%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>在日朝鮮語</t>
+    <t>在日朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD</t>
@@ -1061,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E4%BA%BA</t>
   </si>
   <si>
-    <t>高麗人</t>
+    <t>高丽人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%9F%B3%E6%B3%95%E5%89%87</t>
   </si>
   <si>
-    <t>頭音法則</t>
+    <t>头音法则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%97%A5%E6%88%90</t>
@@ -1103,61 +1061,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>南島語</t>
+    <t>南岛语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>邵語</t>
+    <t>邵语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>卑南語</t>
+    <t>卑南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿美語</t>
+    <t>阿美语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%8D%97%E5%B3%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始南島語</t>
+    <t>原始南岛语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>印尼語</t>
+    <t>印尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>毛利語</t>
+    <t>毛利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E8%AA%9E</t>
   </si>
   <si>
-    <t>東加語</t>
+    <t>东加语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%BE%B7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>賽德克語</t>
+    <t>赛德克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%A3%E8%AA%9E</t>
   </si>
   <si>
-    <t>排灣語</t>
+    <t>排湾语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%BD%90%E8%AF%AD</t>
@@ -1169,19 +1127,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬來語</t>
+    <t>马来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>菲律賓語</t>
+    <t>菲律宾语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E8%A9%9E</t>
   </si>
   <si>
-    <t>數詞</t>
+    <t>数词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E6%97%A5-%E7%90%89%E7%90%83%E8%AF%AD%E6%97%8F</t>
@@ -1193,15 +1151,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%87%8C%E4%BA%9E%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>科里亞克語</t>
+    <t>科里亚克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>阿爾泰語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%E8%AF%AD</t>
   </si>
   <si>
@@ -1211,43 +1166,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3%E5%92%8C%E8%AB%A7</t>
   </si>
   <si>
-    <t>元音和諧</t>
+    <t>元音和谐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%96%87%E7%BE%85%E9%A6%AC%E5%AD%97%E8%BD%89%E5%AF%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>韓文羅馬字轉寫系統</t>
+    <t>韩文罗马字转写系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%AA%9E%E8%83%BD%E5%8A%9B%E8%80%83%E8%A9%A6</t>
   </si>
   <si>
-    <t>韓國語能力考試</t>
+    <t>韩国语能力考试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>古朝鮮語</t>
+    <t>古朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9C%9F%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>中期朝鮮語</t>
+    <t>中期朝鲜语</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E3%81%AE%E5%91%BC%E7%A7%B0%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>ja-朝鮮語の呼称問題</t>
+    <t>ja-朝鲜语の呼称问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/</t>
@@ -1265,24 +1220,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>大韓民國標準語</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%A0%E6%B8%85%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
@@ -1295,9 +1244,6 @@
     <t>平安道方言</t>
   </si>
   <si>
-    <t>中國朝鮮語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD%E8%A5%BF%E9%87%8C%E5%B0%94%E8%BD%AC%E5%86%99%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -1307,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87%E6%AD%A3%E5%AF%AB%E6%B3%95</t>
   </si>
   <si>
-    <t>諺文正寫法</t>
+    <t>谚文正写法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E6%9C%9D%E9%B2%9C%E8%AF%AD</t>
@@ -1319,13 +1265,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
@@ -2459,7 +2405,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2488,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
         <v>90</v>
@@ -2514,10 +2460,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
         <v>10</v>
@@ -2543,10 +2489,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -2572,10 +2518,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2601,10 +2547,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G32" t="n">
         <v>10</v>
@@ -2630,7 +2576,7 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -2659,10 +2605,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2688,10 +2634,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -2717,10 +2663,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2746,10 +2692,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2775,10 +2721,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2804,10 +2750,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2833,10 +2779,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2862,10 +2808,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2891,10 +2837,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2920,10 +2866,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2949,10 +2895,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2978,10 +2924,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -3010,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3039,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>8</v>
@@ -3065,10 +3011,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3094,10 +3040,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3123,10 +3069,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
@@ -3152,10 +3098,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3181,10 +3127,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G52" t="n">
         <v>9</v>
@@ -3210,10 +3156,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3239,10 +3185,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3297,10 +3243,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G56" t="n">
         <v>7</v>
@@ -3326,10 +3272,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
         <v>10</v>
@@ -3355,10 +3301,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G58" t="n">
         <v>45</v>
@@ -3384,10 +3330,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G59" t="n">
         <v>13</v>
@@ -3413,10 +3359,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G60" t="n">
         <v>39</v>
@@ -3442,10 +3388,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G61" t="n">
         <v>15</v>
@@ -3471,10 +3417,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G62" t="n">
         <v>10</v>
@@ -3500,10 +3446,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G63" t="n">
         <v>14</v>
@@ -3529,10 +3475,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G64" t="n">
         <v>17</v>
@@ -3558,10 +3504,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G65" t="n">
         <v>12</v>
@@ -3587,10 +3533,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>9</v>
@@ -3616,10 +3562,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n">
         <v>9</v>
@@ -3645,10 +3591,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G68" t="n">
         <v>10</v>
@@ -3674,10 +3620,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G69" t="n">
         <v>9</v>
@@ -3703,10 +3649,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G70" t="n">
         <v>13</v>
@@ -3732,10 +3678,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>12</v>
@@ -3761,10 +3707,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>12</v>
@@ -3790,10 +3736,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>7</v>
@@ -3819,10 +3765,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>9</v>
@@ -3848,10 +3794,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -3877,10 +3823,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>9</v>
@@ -3906,10 +3852,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -3935,10 +3881,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>10</v>
@@ -3964,10 +3910,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -3993,10 +3939,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -4022,10 +3968,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>10</v>
@@ -4051,10 +3997,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
@@ -4080,10 +4026,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>9</v>
@@ -4109,10 +4055,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>8</v>
@@ -4138,10 +4084,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4167,10 +4113,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>9</v>
@@ -4196,10 +4142,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>8</v>
@@ -4225,10 +4171,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -4254,10 +4200,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -4283,10 +4229,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4312,10 +4258,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
@@ -4341,10 +4287,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4370,10 +4316,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4399,10 +4345,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4428,10 +4374,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4457,10 +4403,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4486,10 +4432,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4515,10 +4461,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -4544,10 +4490,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4573,10 +4519,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -4602,10 +4548,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4631,10 +4577,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4660,10 +4606,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4689,10 +4635,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4718,10 +4664,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4747,10 +4693,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4776,10 +4722,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
@@ -4805,10 +4751,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4834,10 +4780,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4863,10 +4809,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4892,10 +4838,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4921,10 +4867,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4950,10 +4896,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4979,10 +4925,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5008,10 +4954,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>9</v>
@@ -5037,10 +4983,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>15</v>
@@ -5066,10 +5012,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5095,10 +5041,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>6</v>
@@ -5124,10 +5070,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5153,10 +5099,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5182,10 +5128,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>26</v>
@@ -5211,10 +5157,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5240,10 +5186,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5269,10 +5215,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5298,10 +5244,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5327,10 +5273,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5356,10 +5302,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5385,10 +5331,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5414,10 +5360,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5443,10 +5389,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5472,10 +5418,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5501,10 +5447,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F132" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="G132" t="n">
         <v>5</v>
@@ -5530,10 +5476,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F133" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5559,10 +5505,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F134" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5617,10 +5563,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F136" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5646,10 +5592,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F137" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5675,10 +5621,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F138" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5707,7 +5653,7 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
         <v>16</v>
@@ -5733,10 +5679,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="G140" t="n">
         <v>6</v>
@@ -5762,10 +5708,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G141" t="n">
         <v>78</v>
@@ -5791,10 +5737,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -5820,10 +5766,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5849,10 +5795,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5878,10 +5824,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5907,10 +5853,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5936,10 +5882,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5965,10 +5911,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5994,10 +5940,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6023,10 +5969,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6052,10 +5998,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6081,10 +6027,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6110,10 +6056,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6139,10 +6085,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6168,10 +6114,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6197,10 +6143,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6226,10 +6172,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6255,10 +6201,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6284,10 +6230,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6313,10 +6259,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6342,10 +6288,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6371,10 +6317,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6400,10 +6346,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6429,10 +6375,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6458,10 +6404,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6487,10 +6433,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6516,10 +6462,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6545,10 +6491,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6574,10 +6520,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6603,10 +6549,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6632,10 +6578,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6661,10 +6607,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6690,10 +6636,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6719,10 +6665,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6748,10 +6694,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6777,10 +6723,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6806,10 +6752,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6835,10 +6781,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6864,10 +6810,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6893,10 +6839,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6922,10 +6868,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6951,10 +6897,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6980,10 +6926,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7009,10 +6955,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7038,10 +6984,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7067,10 +7013,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7096,10 +7042,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7125,10 +7071,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G188" t="n">
         <v>4</v>
@@ -7154,10 +7100,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G189" t="n">
         <v>9</v>
@@ -7183,10 +7129,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7212,10 +7158,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7241,10 +7187,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7270,10 +7216,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7299,10 +7245,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7328,10 +7274,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7357,10 +7303,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7386,10 +7332,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7415,10 +7361,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7444,10 +7390,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7473,10 +7419,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7502,10 +7448,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7531,10 +7477,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -7560,10 +7506,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7589,10 +7535,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7618,10 +7564,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7647,10 +7593,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -7676,10 +7622,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>5</v>
@@ -7705,10 +7651,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7734,10 +7680,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F209" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7763,10 +7709,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7792,10 +7738,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G211" t="n">
         <v>6</v>
@@ -7821,10 +7767,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7850,10 +7796,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -7879,10 +7825,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -7908,10 +7854,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7937,10 +7883,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -7966,10 +7912,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7995,10 +7941,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8027,7 +7973,7 @@
         <v>13</v>
       </c>
       <c r="F219" t="s">
-        <v>419</v>
+        <v>14</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8053,10 +7999,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F220" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -8082,10 +8028,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F221" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8111,10 +8057,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F222" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -8140,10 +8086,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F223" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G223" t="n">
         <v>42</v>
@@ -8169,10 +8115,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="F224" t="s">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="G224" t="n">
         <v>7</v>
@@ -8198,10 +8144,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="F225" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8227,10 +8173,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F226" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8256,10 +8202,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="F227" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8288,7 +8234,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8314,10 +8260,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F229" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8343,10 +8289,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8372,10 +8318,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8401,10 +8347,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8430,10 +8376,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8459,10 +8405,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8488,10 +8434,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G235" t="n">
         <v>26</v>
@@ -8517,10 +8463,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F236" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
